--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Tnfsf11</t>
+  </si>
+  <si>
+    <t>Tnfrsf11b</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Tnfsf11</t>
-  </si>
-  <si>
-    <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +540,40 @@
         <v>4.813422</v>
       </c>
       <c r="I2">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>0.1741260756746667</v>
+        <v>3.553841452442666</v>
       </c>
       <c r="R2">
-        <v>1.567134681072</v>
+        <v>31.984573071984</v>
       </c>
       <c r="S2">
-        <v>0.03731724726600064</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="T2">
-        <v>0.03731724726600064</v>
+        <v>0.8812411509483107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>4.813422</v>
       </c>
       <c r="I3">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>3.553841452442666</v>
+        <v>0.439863338152</v>
       </c>
       <c r="R3">
-        <v>31.984573071984</v>
+        <v>3.958770043368</v>
       </c>
       <c r="S3">
-        <v>0.7616296393927198</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="T3">
-        <v>0.7616296393927199</v>
+        <v>0.1090723037479928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,226 +664,40 @@
         <v>4.813422</v>
       </c>
       <c r="I4">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9077880937234966</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>0.5078641552199999</v>
+        <v>0.03906359365333333</v>
       </c>
       <c r="R4">
-        <v>4.57077739698</v>
+        <v>0.35157234288</v>
       </c>
       <c r="S4">
-        <v>0.1088412070647761</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="T4">
-        <v>0.1088412070647761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1629803333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.488941</v>
-      </c>
-      <c r="I5">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="J5">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1085253333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.325576</v>
-      </c>
-      <c r="O5">
-        <v>0.0411078835732859</v>
-      </c>
-      <c r="P5">
-        <v>0.0411078835732859</v>
-      </c>
-      <c r="Q5">
-        <v>0.01768749500177778</v>
-      </c>
-      <c r="R5">
-        <v>0.159187455016</v>
-      </c>
-      <c r="S5">
-        <v>0.003790636307285257</v>
-      </c>
-      <c r="T5">
-        <v>0.003790636307285257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1629803333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.488941</v>
-      </c>
-      <c r="I6">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="J6">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.214957333333333</v>
-      </c>
-      <c r="N6">
-        <v>6.644871999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.8389949644181</v>
-      </c>
-      <c r="P6">
-        <v>0.8389949644181001</v>
-      </c>
-      <c r="Q6">
-        <v>0.3609944845057776</v>
-      </c>
-      <c r="R6">
-        <v>3.248950360552</v>
-      </c>
-      <c r="S6">
-        <v>0.07736532502538022</v>
-      </c>
-      <c r="T6">
-        <v>0.07736532502538024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1629803333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.488941</v>
-      </c>
-      <c r="I7">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="J7">
-        <v>0.09221190627650351</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.31653</v>
-      </c>
-      <c r="N7">
-        <v>0.9495899999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.1198971520086141</v>
-      </c>
-      <c r="P7">
-        <v>0.1198971520086141</v>
-      </c>
-      <c r="Q7">
-        <v>0.05158816490999999</v>
-      </c>
-      <c r="R7">
-        <v>0.4642934841899999</v>
-      </c>
-      <c r="S7">
-        <v>0.01105594494383802</v>
-      </c>
-      <c r="T7">
-        <v>0.01105594494383802</v>
+        <v>0.009686545303696536</v>
       </c>
     </row>
   </sheetData>
